--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 12.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 12.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -565,7 +565,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -657,7 +657,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -703,7 +703,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -749,7 +749,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -864,7 +864,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -910,7 +910,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -933,7 +933,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -956,7 +956,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -979,7 +979,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1002,7 +1002,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1025,7 +1025,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1048,7 +1048,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1140,7 +1140,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1232,7 +1232,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1255,7 +1255,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1278,7 +1278,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1347,7 +1347,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1370,7 +1370,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1393,7 +1393,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1416,7 +1416,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1439,7 +1439,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1531,7 +1531,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1600,7 +1600,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1623,7 +1623,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1742,7 +1742,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
